--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Property</t>
   </si>
@@ -54,10 +54,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T19:18:44+01:00</t>
+    <t>2023-11-13T21:18:10+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -322,56 +325,58 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -393,66 +398,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T21:18:10+01:00</t>
+    <t>2023-11-15T00:00:31+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T00:00:31+01:00</t>
+    <t>2023-11-15T00:11:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T00:11:46+01:00</t>
+    <t>2023-11-15T00:20:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T00:20:08+01:00</t>
+    <t>2023-11-15T00:28:16+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T00:28:16+01:00</t>
+    <t>2023-11-15T22:57:05+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Kode som klassifiserer tjenesten for søk, sortering og visningsformål.</t>
+    <t>Kode som klassifiserer tjenesten for søk, sortering og visningsformål. (flere koder vil leggest til senere)</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -93,28 +93,10 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>15220000</t>
-  </si>
-  <si>
-    <t>Laboratory test</t>
-  </si>
-  <si>
-    <t>11429006</t>
-  </si>
-  <si>
-    <t>Consultation</t>
-  </si>
-  <si>
-    <t>1237136005</t>
-  </si>
-  <si>
-    <t>Consultation with patient</t>
-  </si>
-  <si>
     <t>1269515004</t>
   </si>
   <si>
-    <t>Face-to-face encounter</t>
+    <t>Face to face consultation with patient</t>
   </si>
   <si>
     <t>719410009</t>
@@ -386,7 +368,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -425,39 +407,15 @@
         <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T22:57:05+01:00</t>
+    <t>2023-11-15T23:05:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T23:05:14+01:00</t>
+    <t>2023-11-17T13:16:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-17T13:16:17+01:00</t>
+    <t>2023-12-12T23:44:27+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-12T23:44:27+01:00</t>
+    <t>2023-12-13T00:38:53+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:38:53+01:00</t>
+    <t>2023-12-13T00:44:24+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:44:24+01:00</t>
+    <t>2023-12-13T00:53:03+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:53:03+01:00</t>
+    <t>2023-12-13T00:58:42+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:58:42+01:00</t>
+    <t>2023-12-13T10:40:21+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T10:40:21+01:00</t>
+    <t>2023-12-13T11:06:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:06:00+01:00</t>
+    <t>2023-12-13T11:11:11+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:11:11+01:00</t>
+    <t>2023-12-13T11:17:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:17:26+01:00</t>
+    <t>2023-12-13T16:08:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T16:08:28+01:00</t>
+    <t>2023-12-13T16:14:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T16:14:30+01:00</t>
+    <t>2023-12-13T17:25:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T17:25:33+01:00</t>
+    <t>2023-12-13T17:36:01+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T17:36:01+01:00</t>
+    <t>2023-12-14T00:07:25+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:07:25+01:00</t>
+    <t>2023-12-14T00:17:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:17:30+01:00</t>
+    <t>2023-12-14T00:31:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:31:44+01:00</t>
+    <t>2023-12-14T15:10:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T15:10:19+01:00</t>
+    <t>2024-06-09T15:34:44+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-09T15:34:44+02:00</t>
+    <t>2024-06-12T14:59:11+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-06T23:06:55+01:00</t>
+    <t>2024-11-07T10:16:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:16:17+01:00</t>
+    <t>2024-11-07T10:24:13+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:24:13+01:00</t>
+    <t>2024-11-07T10:34:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:34:59+01:00</t>
+    <t>2025-02-07T15:58:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:58:52+01:00</t>
+    <t>2025-02-12T12:09:01+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-12T12:09:01+01:00</t>
+    <t>2025-02-12T17:25:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-12T17:25:34+01:00</t>
+    <t>2025-02-13T07:45:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T07:45:06+01:00</t>
+    <t>2025-02-21T16:49:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T16:49:26+01:00</t>
+    <t>2025-02-22T02:39:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T02:39:46+01:00</t>
+    <t>2025-02-22T03:24:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:24:26+01:00</t>
+    <t>2025-02-22T03:36:49+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:36:49+01:00</t>
+    <t>2025-02-22T03:45:56+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:45:56+01:00</t>
+    <t>2025-02-22T03:55:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:55:28+01:00</t>
+    <t>2025-02-22T04:12:23+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T04:12:23+01:00</t>
+    <t>2025-02-22T05:08:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T05:08:06+01:00</t>
+    <t>2025-02-22T05:29:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T05:29:40+01:00</t>
+    <t>2025-03-16T11:47:10+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T11:47:10+01:00</t>
+    <t>2025-03-16T12:58:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T12:58:55+01:00</t>
+    <t>2025-03-16T13:18:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T13:18:55+01:00</t>
+    <t>2025-03-26T11:34:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T11:34:28+01:00</t>
+    <t>2025-05-28T01:07:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T01:07:52+02:00</t>
+    <t>2025-05-28T02:05:36+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T02:05:36+02:00</t>
+    <t>2025-05-29T20:33:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>Consultation via video conference</t>
+  </si>
+  <si>
+    <t>3457005</t>
+  </si>
+  <si>
+    <t>Patient referral</t>
   </si>
   <si>
     <t/>
@@ -368,7 +374,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,15 +413,23 @@
         <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T20:33:03+02:00</t>
+    <t>2025-05-29T20:44:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T20:44:52+02:00</t>
+    <t>2025-07-07T00:15:54+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T00:15:54+02:00</t>
+    <t>2025-07-07T00:32:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T00:32:38+02:00</t>
+    <t>2025-07-07T08:59:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T08:59:22+02:00</t>
+    <t>2025-09-28T17:18:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-28T17:18:13+02:00</t>
+    <t>2025-09-29T11:26:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:26:30+02:00</t>
+    <t>2025-09-29T11:54:59+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:54:59+02:00</t>
+    <t>2025-09-29T13:11:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.1</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T13:11:32+02:00</t>
+    <t>2025-09-29T13:18:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-category-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T13:18:42+02:00</t>
+    <t>2025-10-01T13:36:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
